--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2021.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions2021.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.027*"exchange" + 0.025*"foreign" + 0.017*"yes" + 0.013*"bank" + 0.012*"currency" + 0.012*"resident" + 0.012*"fund" + 0.011*"may" + 0.010*"transaction" + 0.009*"nonresident"</t>
-  </si>
-  <si>
-    <t>0.025*"foreign" + 0.022*"exchange" + 0.018*"yes" + 0.014*"fund" + 0.012*"bank" + 0.011*"currency" + 0.010*"transaction" + 0.010*"nonresident" + 0.010*"resident" + 0.009*"account"</t>
-  </si>
-  <si>
-    <t>0.028*"exchange" + 0.022*"foreign" + 0.021*"yes" + 0.011*"bank" + 0.011*"currency" + 0.011*"transaction" + 0.010*"investment" + 0.010*"resident" + 0.009*"nonresident" + 0.009*"security"</t>
-  </si>
-  <si>
-    <t>0.028*"exchange" + 0.022*"yes" + 0.019*"foreign" + 0.012*"investment" + 0.012*"bank" + 0.011*"may" + 0.010*"currency" + 0.010*"abroad" + 0.010*"resident" + 0.010*"account"</t>
-  </si>
-  <si>
-    <t>0.009*"foreign" + 0.008*"yes" + 0.007*"exchange" + 0.004*"investment" + 0.004*"security" + 0.004*"bank" + 0.004*"fund" + 0.004*"transaction" + 0.004*"currency" + 0.004*"nonresident"</t>
+    <t>0.022*"security" + 0.020*"fund" + 0.017*"investment" + 0.017*"asset" + 0.015*"institution" + 0.015*"regulation" + 0.015*"financial" + 0.014*"company" + 0.012*"bank" + 0.012*"law"</t>
+  </si>
+  <si>
+    <t>0.043*"limit" + 0.029*"approval" + 0.021*"person" + 0.019*"effective" + 0.018*"sri" + 0.018*"investment" + 0.017*"lanka" + 0.017*"insurance" + 0.016*"prior" + 0.015*"payment"</t>
+  </si>
+  <si>
+    <t>0.056*"currency" + 0.055*"foreign" + 0.049*"account" + 0.024*"may" + 0.017*"u" + 0.016*"domestic" + 0.016*"amount" + 0.016*"transfer" + 0.014*"payment" + 0.013*"bank"</t>
+  </si>
+  <si>
+    <t>0.035*"resident" + 0.033*"transaction" + 0.031*"nonresident" + 0.026*"foreign" + 0.025*"exchange" + 0.022*"import" + 0.021*"bank" + 0.019*"purchase" + 0.018*"requirement" + 0.016*"capital"</t>
+  </si>
+  <si>
+    <t>0.112*"exchange" + 0.103*"yes" + 0.039*"rate" + 0.035*"restriction" + 0.035*"arrangement" + 0.034*"monetary" + 0.030*"report" + 0.029*"international" + 0.024*"annual" + 0.023*"fund"</t>
   </si>
 </sst>
 </file>
